--- a/test_data/test_data_7.xlsx
+++ b/test_data/test_data_7.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qlrqo\Documents\전공 과목\전프 (CS408)\ChatSummarizer\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/2018KAIST_FALL/CS408_전프/src/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24960" windowHeight="12500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,15 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1262,7 +1268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1319,7 +1325,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1599,17 +1605,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.9140625" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -1620,18 +1626,18 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1642,29 +1648,29 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1704,15 +1710,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1744,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1760,55 +1766,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1816,15 +1822,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1904,23 +1910,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1928,15 +1934,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1944,23 +1950,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2000,47 +2006,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2056,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2072,15 +2078,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2088,31 +2094,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2131,17 +2137,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.9140625" customWidth="1"/>
+    <col min="1" max="1" width="91.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2163,29 +2169,29 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -2228,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2244,15 +2250,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2308,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2340,15 +2346,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -2356,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2380,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2388,15 +2394,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -2404,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -2412,15 +2418,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2436,15 +2442,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2452,15 +2458,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -2500,15 +2506,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>103</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2540,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2572,23 +2578,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
       <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
       <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -2628,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2636,15 +2642,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>120</v>
       </c>
       <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -2684,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -2732,15 +2738,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>132</v>
       </c>
       <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -2766,17 +2772,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.9140625" customWidth="1"/>
+    <col min="1" max="1" width="83.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -2787,7 +2793,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -2798,7 +2804,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -2809,18 +2815,18 @@
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -2871,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -2879,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -2887,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -2911,15 +2917,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>149</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -2943,23 +2949,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>153</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>154</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>156</v>
       </c>
@@ -2975,15 +2981,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>157</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -2999,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -3007,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -3015,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -3031,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -3039,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -3047,15 +3053,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>166</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -3063,39 +3069,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>169</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>170</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>171</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -3103,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -3111,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -3119,47 +3125,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>175</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>176</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>177</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>178</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>179</v>
       </c>
       <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>180</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -3175,23 +3181,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>182</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>183</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>184</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>187</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>188</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -3255,23 +3261,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>192</v>
       </c>
       <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>193</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>194</v>
       </c>
@@ -3279,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>195</v>
       </c>
@@ -3287,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>196</v>
       </c>
@@ -3295,15 +3301,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>197</v>
       </c>
       <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -3319,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -3351,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>205</v>
       </c>
@@ -3367,15 +3373,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>206</v>
       </c>
       <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -3383,31 +3389,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>208</v>
       </c>
       <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>209</v>
       </c>
       <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>210</v>
       </c>
       <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -3415,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -3423,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>215</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>213</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>217</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>219</v>
       </c>
@@ -3487,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -3495,15 +3501,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>221</v>
       </c>
       <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -3511,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -3535,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>224</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>225</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>226</v>
       </c>
@@ -3559,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>227</v>
       </c>
@@ -3567,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -3575,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -3591,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -3599,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -3607,23 +3613,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>233</v>
       </c>
       <c r="B103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>234</v>
       </c>
       <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>235</v>
       </c>
@@ -3631,47 +3637,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>236</v>
       </c>
       <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>237</v>
       </c>
       <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>238</v>
       </c>
       <c r="B108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>239</v>
       </c>
       <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>240</v>
       </c>
       <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>241</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>242</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>243</v>
       </c>
@@ -3695,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>245</v>
       </c>
@@ -3711,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>246</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>247</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>249</v>
       </c>
@@ -3743,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -3751,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>251</v>
       </c>
@@ -3759,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>252</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>253</v>
       </c>
@@ -3775,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>254</v>
       </c>
@@ -3783,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>255</v>
       </c>
@@ -3791,15 +3797,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>256</v>
       </c>
       <c r="B126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>257</v>
       </c>
@@ -3807,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>259</v>
       </c>
@@ -3823,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>260</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -3839,15 +3845,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>262</v>
       </c>
       <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -3855,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -3863,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>265</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>266</v>
       </c>
@@ -3879,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>267</v>
       </c>
@@ -3887,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>268</v>
       </c>
@@ -3895,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -3903,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>270</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>271</v>
       </c>
@@ -3919,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>272</v>
       </c>
@@ -3938,16 +3944,16 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="143.1640625" customWidth="1"/>
-    <col min="3" max="3" width="44.4140625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -3958,7 +3964,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -3969,18 +3975,18 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>274</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -4002,7 +4008,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -4010,15 +4016,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>278</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -4026,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -4034,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -4042,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -4050,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>283</v>
       </c>
@@ -4058,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>284</v>
       </c>
@@ -4066,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -4074,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -4082,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -4090,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>288</v>
       </c>
@@ -4098,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>289</v>
       </c>
@@ -4106,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>290</v>
       </c>
@@ -4114,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>291</v>
       </c>
@@ -4132,16 +4138,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -4152,7 +4158,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -4163,18 +4169,18 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>293</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -4185,7 +4191,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -4196,7 +4202,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>296</v>
       </c>
@@ -4204,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>297</v>
       </c>
@@ -4212,15 +4218,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>298</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -4228,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>300</v>
       </c>
@@ -4236,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>301</v>
       </c>
@@ -4244,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -4252,15 +4258,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>303</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -4268,15 +4274,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>305</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>306</v>
       </c>
@@ -4284,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>307</v>
       </c>
@@ -4292,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>308</v>
       </c>
@@ -4300,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>309</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -4316,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>311</v>
       </c>
@@ -4324,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -4332,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>313</v>
       </c>
@@ -4340,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>314</v>
       </c>
@@ -4348,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>315</v>
       </c>
@@ -4356,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -4364,15 +4370,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>317</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>318</v>
       </c>
@@ -4380,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>319</v>
       </c>
@@ -4388,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>320</v>
       </c>
@@ -4396,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>321</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>322</v>
       </c>
@@ -4412,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -4428,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>325</v>
       </c>
@@ -4436,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>326</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>327</v>
       </c>
@@ -4452,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -4460,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -4468,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>330</v>
       </c>
@@ -4476,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>331</v>
       </c>
@@ -4484,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>332</v>
       </c>
@@ -4492,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>334</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>335</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -4524,7 +4530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>337</v>
       </c>
@@ -4532,7 +4538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>338</v>
       </c>
@@ -4540,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -4548,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>340</v>
       </c>
@@ -4556,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>341</v>
       </c>
@@ -4564,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>342</v>
       </c>
@@ -4572,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -4595,13 +4601,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>344</v>
       </c>
@@ -4612,7 +4618,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -4637,7 +4643,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -4648,7 +4654,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>348</v>
       </c>
@@ -4656,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>349</v>
       </c>
@@ -4664,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>350</v>
       </c>
@@ -4672,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>351</v>
       </c>
@@ -4683,7 +4689,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>352</v>
       </c>
@@ -4694,7 +4700,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>353</v>
       </c>
@@ -4705,7 +4711,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>354</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>355</v>
       </c>
@@ -4724,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>356</v>
       </c>
@@ -4732,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>357</v>
       </c>
@@ -4740,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>358</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>359</v>
       </c>
@@ -4756,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>360</v>
       </c>
@@ -4764,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>361</v>
       </c>
@@ -4772,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>363</v>
       </c>
@@ -4788,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -4796,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>365</v>
       </c>
@@ -4804,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>366</v>
       </c>
